--- a/test/Timings.xlsx
+++ b/test/Timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmcarstairs/git/MC_IntervalStoreJ/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256C380F-A0D1-E242-AD80-FEFF8C091D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8B31B8-2CEF-5C4F-83C5-3848418890C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{63CB69B5-7303-624F-AEF4-D8971537C165}"/>
   </bookViews>
@@ -16,10 +16,8 @@
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Analysis!$E$253:$E$382</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Analysis!$E$533:$E$662</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$G$253:$G$382</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Analysis!$G$533:$G$662</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Analysis!$D$779:$D$787</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Analysis!$G$779:$G$787</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -104,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="27">
   <si>
     <t>Test</t>
   </si>
@@ -179,6 +177,12 @@
   </si>
   <si>
     <t>IntervalStore query avg</t>
+  </si>
+  <si>
+    <t>IntervalStore remove</t>
+  </si>
+  <si>
+    <t>IntervalStore remove avg</t>
   </si>
 </sst>
 </file>
@@ -3734,6 +3738,165 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
+              <c:f>Analysis!$H$53:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Analysis!$D$53:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3887,165 +4050,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Analysis!$H$53:$H$102</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6561181.6887021642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4069,7 +4073,112 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12500000000000003"/>
+                  <c:y val="-0.1199040767386092"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>N=100K</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-206C-E44B-A3A7-B52642492015}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1961206896551724"/>
+                  <c:y val="-4.3165467625899283E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>N=500K</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-206C-E44B-A3A7-B52642492015}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln>
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -4085,6 +4194,165 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Analysis!$H$383:$H$432</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Analysis!$D$383:$D$432</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4238,165 +4506,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>176</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Analysis!$H$383:$H$432</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6561181.6887021642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4611,7 +4720,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4795,6 +4904,165 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Analysis!$H$103:$H$152</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Analysis!$D$103:$D$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4948,165 +5216,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>7932</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Analysis!$H$103:$H$152</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6561181.6887021642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,6 +5240,165 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
+              <c:f>Analysis!$H$433:$H$482</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1151292.546497023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2441214.5291060349</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3783461.3260915014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5159687.9304360477</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6561181.6887021642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Analysis!$D$433:$D$482</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -5284,165 +5552,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>7230</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Analysis!$H$433:$H$482</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1151292.546497023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2441214.5291060349</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3783461.3260915014</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5159687.9304360477</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6561181.6887021642</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6561181.6887021642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5665,7 +5774,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5843,6 +5952,132 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6768558951965066E-2"/>
+                  <c:y val="0.15968063872255489"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>N=20K</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FF11-5847-A0C6-4A828F4D60A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17272685073754426"/>
+                  <c:y val="7.2687066811259374E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>N=500K</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FF11-5847-A0C6-4A828F4D60A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:prstDash val="dash"/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -6440,6 +6675,756 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Remove times (average of 10 iterations)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IntervalStore</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0218340611353732E-2"/>
+                  <c:y val="-0.16766467065868262"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>N=20K</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-023D-5E41-96A6-146E16692D7E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27074235807860264"/>
+                  <c:y val="-2.9940119760479059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>N=100K</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.17674672489082971"/>
+                      <c:h val="0.15163688371288919"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-023D-5E41-96A6-146E16692D7E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:prstDash val="dash"/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$G$779:$G$787</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.206072645530174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.611537753638338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.899219826090119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.122363377404328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.304684934198283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.458835614025542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.592367006650065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.710150042306449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.815510557964274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$D$779:$D$787</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-023D-5E41-96A6-146E16692D7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931894064"/>
+        <c:axId val="931895744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931894064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                  <a:t>e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931895744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="931895744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>ms / 1000</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931894064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6481,6 +7466,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7552,6 +8577,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7777,6 +9318,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1610BFE2-65C0-C643-A98A-9F21F50294CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8082,11 +9661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427E4482-20AD-314E-BC3C-0448FC9DE93E}">
-  <dimension ref="A1:J688"/>
+  <dimension ref="A1:J787"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R82" sqref="R82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31468,6 +33047,3372 @@
         <v>21.297887219158618</v>
       </c>
     </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>25</v>
+      </c>
+      <c r="B689" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C689" s="4">
+        <v>1</v>
+      </c>
+      <c r="D689" s="4">
+        <v>14</v>
+      </c>
+      <c r="E689" s="9">
+        <f t="shared" ref="E689:E752" si="60">IF(D689=0,0,B689/D689)</f>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="F689" s="10">
+        <f t="shared" ref="F689:F752" si="61">B689*B689</f>
+        <v>40000000000</v>
+      </c>
+      <c r="G689" s="11">
+        <f t="shared" ref="G689:G752" si="62">LN(B689)</f>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H689" s="12">
+        <f t="shared" ref="H689:H752" si="63">B689*G689</f>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I689" s="15">
+        <f t="shared" ref="I689:I752" si="64">POWER(D689,0.5)</f>
+        <v>3.7416573867739413</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>25</v>
+      </c>
+      <c r="B690" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C690" s="4">
+        <v>2</v>
+      </c>
+      <c r="D690" s="4">
+        <v>15</v>
+      </c>
+      <c r="E690" s="9">
+        <f t="shared" si="60"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="F690" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G690" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H690" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I690" s="15">
+        <f t="shared" si="64"/>
+        <v>3.872983346207417</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>25</v>
+      </c>
+      <c r="B691" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C691" s="4">
+        <v>3</v>
+      </c>
+      <c r="D691" s="4">
+        <v>16</v>
+      </c>
+      <c r="E691" s="9">
+        <f t="shared" si="60"/>
+        <v>12500</v>
+      </c>
+      <c r="F691" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G691" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H691" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I691" s="15">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>25</v>
+      </c>
+      <c r="B692" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C692" s="4">
+        <v>4</v>
+      </c>
+      <c r="D692" s="4">
+        <v>15</v>
+      </c>
+      <c r="E692" s="9">
+        <f t="shared" si="60"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="F692" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G692" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H692" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I692" s="15">
+        <f t="shared" si="64"/>
+        <v>3.872983346207417</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>25</v>
+      </c>
+      <c r="B693" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C693" s="4">
+        <v>5</v>
+      </c>
+      <c r="D693" s="4">
+        <v>14</v>
+      </c>
+      <c r="E693" s="9">
+        <f t="shared" si="60"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="F693" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G693" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H693" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I693" s="15">
+        <f t="shared" si="64"/>
+        <v>3.7416573867739413</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>25</v>
+      </c>
+      <c r="B694" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C694" s="4">
+        <v>6</v>
+      </c>
+      <c r="D694" s="4">
+        <v>15</v>
+      </c>
+      <c r="E694" s="9">
+        <f t="shared" si="60"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="F694" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G694" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H694" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I694" s="15">
+        <f t="shared" si="64"/>
+        <v>3.872983346207417</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>25</v>
+      </c>
+      <c r="B695" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C695" s="4">
+        <v>7</v>
+      </c>
+      <c r="D695" s="4">
+        <v>14</v>
+      </c>
+      <c r="E695" s="9">
+        <f t="shared" si="60"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="F695" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G695" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H695" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I695" s="15">
+        <f t="shared" si="64"/>
+        <v>3.7416573867739413</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>25</v>
+      </c>
+      <c r="B696" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C696" s="4">
+        <v>8</v>
+      </c>
+      <c r="D696" s="4">
+        <v>14</v>
+      </c>
+      <c r="E696" s="9">
+        <f t="shared" si="60"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="F696" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G696" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H696" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I696" s="15">
+        <f t="shared" si="64"/>
+        <v>3.7416573867739413</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>25</v>
+      </c>
+      <c r="B697" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C697" s="4">
+        <v>9</v>
+      </c>
+      <c r="D697" s="4">
+        <v>16</v>
+      </c>
+      <c r="E697" s="9">
+        <f t="shared" si="60"/>
+        <v>12500</v>
+      </c>
+      <c r="F697" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G697" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H697" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I697" s="15">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>25</v>
+      </c>
+      <c r="B698" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C698" s="4">
+        <v>10</v>
+      </c>
+      <c r="D698" s="4">
+        <v>19</v>
+      </c>
+      <c r="E698" s="9">
+        <f t="shared" si="60"/>
+        <v>10526.315789473685</v>
+      </c>
+      <c r="F698" s="10">
+        <f t="shared" si="61"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G698" s="11">
+        <f t="shared" si="62"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H698" s="12">
+        <f t="shared" si="63"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I698" s="15">
+        <f t="shared" si="64"/>
+        <v>4.358898943540674</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>25</v>
+      </c>
+      <c r="B699" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C699" s="4">
+        <v>1</v>
+      </c>
+      <c r="D699" s="4">
+        <v>21</v>
+      </c>
+      <c r="E699" s="9">
+        <f t="shared" si="60"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="F699" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G699" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H699" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I699" s="15">
+        <f t="shared" si="64"/>
+        <v>4.5825756949558398</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>25</v>
+      </c>
+      <c r="B700" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C700" s="4">
+        <v>2</v>
+      </c>
+      <c r="D700" s="4">
+        <v>25</v>
+      </c>
+      <c r="E700" s="9">
+        <f t="shared" si="60"/>
+        <v>12000</v>
+      </c>
+      <c r="F700" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G700" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H700" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I700" s="15">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>25</v>
+      </c>
+      <c r="B701" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C701" s="4">
+        <v>3</v>
+      </c>
+      <c r="D701" s="4">
+        <v>22</v>
+      </c>
+      <c r="E701" s="9">
+        <f t="shared" si="60"/>
+        <v>13636.363636363636</v>
+      </c>
+      <c r="F701" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G701" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H701" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I701" s="15">
+        <f t="shared" si="64"/>
+        <v>4.6904157598234297</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>25</v>
+      </c>
+      <c r="B702" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C702" s="4">
+        <v>4</v>
+      </c>
+      <c r="D702" s="4">
+        <v>26</v>
+      </c>
+      <c r="E702" s="9">
+        <f t="shared" si="60"/>
+        <v>11538.461538461539</v>
+      </c>
+      <c r="F702" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G702" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H702" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I702" s="15">
+        <f t="shared" si="64"/>
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>25</v>
+      </c>
+      <c r="B703" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C703" s="4">
+        <v>5</v>
+      </c>
+      <c r="D703" s="4">
+        <v>26</v>
+      </c>
+      <c r="E703" s="9">
+        <f t="shared" si="60"/>
+        <v>11538.461538461539</v>
+      </c>
+      <c r="F703" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G703" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H703" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I703" s="15">
+        <f t="shared" si="64"/>
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>25</v>
+      </c>
+      <c r="B704" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C704" s="4">
+        <v>6</v>
+      </c>
+      <c r="D704" s="4">
+        <v>27</v>
+      </c>
+      <c r="E704" s="9">
+        <f t="shared" si="60"/>
+        <v>11111.111111111111</v>
+      </c>
+      <c r="F704" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G704" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H704" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I704" s="15">
+        <f t="shared" si="64"/>
+        <v>5.196152422706632</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>25</v>
+      </c>
+      <c r="B705" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C705" s="4">
+        <v>7</v>
+      </c>
+      <c r="D705" s="4">
+        <v>26</v>
+      </c>
+      <c r="E705" s="9">
+        <f t="shared" si="60"/>
+        <v>11538.461538461539</v>
+      </c>
+      <c r="F705" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G705" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H705" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I705" s="15">
+        <f t="shared" si="64"/>
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>25</v>
+      </c>
+      <c r="B706" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C706" s="4">
+        <v>8</v>
+      </c>
+      <c r="D706" s="4">
+        <v>27</v>
+      </c>
+      <c r="E706" s="9">
+        <f t="shared" si="60"/>
+        <v>11111.111111111111</v>
+      </c>
+      <c r="F706" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G706" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H706" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I706" s="15">
+        <f t="shared" si="64"/>
+        <v>5.196152422706632</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>25</v>
+      </c>
+      <c r="B707" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C707" s="4">
+        <v>9</v>
+      </c>
+      <c r="D707" s="4">
+        <v>22</v>
+      </c>
+      <c r="E707" s="9">
+        <f t="shared" si="60"/>
+        <v>13636.363636363636</v>
+      </c>
+      <c r="F707" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G707" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H707" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I707" s="15">
+        <f t="shared" si="64"/>
+        <v>4.6904157598234297</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>25</v>
+      </c>
+      <c r="B708" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C708" s="4">
+        <v>10</v>
+      </c>
+      <c r="D708" s="4">
+        <v>26</v>
+      </c>
+      <c r="E708" s="9">
+        <f t="shared" si="60"/>
+        <v>11538.461538461539</v>
+      </c>
+      <c r="F708" s="10">
+        <f t="shared" si="61"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G708" s="11">
+        <f t="shared" si="62"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H708" s="12">
+        <f t="shared" si="63"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I708" s="15">
+        <f t="shared" si="64"/>
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>25</v>
+      </c>
+      <c r="B709" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C709" s="4">
+        <v>1</v>
+      </c>
+      <c r="D709" s="4">
+        <v>36</v>
+      </c>
+      <c r="E709" s="9">
+        <f t="shared" si="60"/>
+        <v>11111.111111111111</v>
+      </c>
+      <c r="F709" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G709" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H709" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I709" s="15">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>25</v>
+      </c>
+      <c r="B710" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C710" s="4">
+        <v>2</v>
+      </c>
+      <c r="D710" s="4">
+        <v>33</v>
+      </c>
+      <c r="E710" s="9">
+        <f t="shared" si="60"/>
+        <v>12121.212121212122</v>
+      </c>
+      <c r="F710" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G710" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H710" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I710" s="15">
+        <f t="shared" si="64"/>
+        <v>5.7445626465380286</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>25</v>
+      </c>
+      <c r="B711" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C711" s="4">
+        <v>3</v>
+      </c>
+      <c r="D711" s="4">
+        <v>34</v>
+      </c>
+      <c r="E711" s="9">
+        <f t="shared" si="60"/>
+        <v>11764.705882352941</v>
+      </c>
+      <c r="F711" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G711" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H711" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I711" s="15">
+        <f t="shared" si="64"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>25</v>
+      </c>
+      <c r="B712" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C712" s="4">
+        <v>4</v>
+      </c>
+      <c r="D712" s="4">
+        <v>33</v>
+      </c>
+      <c r="E712" s="9">
+        <f t="shared" si="60"/>
+        <v>12121.212121212122</v>
+      </c>
+      <c r="F712" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G712" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H712" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I712" s="15">
+        <f t="shared" si="64"/>
+        <v>5.7445626465380286</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>25</v>
+      </c>
+      <c r="B713" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C713" s="4">
+        <v>5</v>
+      </c>
+      <c r="D713" s="4">
+        <v>34</v>
+      </c>
+      <c r="E713" s="9">
+        <f t="shared" si="60"/>
+        <v>11764.705882352941</v>
+      </c>
+      <c r="F713" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G713" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H713" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I713" s="15">
+        <f t="shared" si="64"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>25</v>
+      </c>
+      <c r="B714" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C714" s="4">
+        <v>6</v>
+      </c>
+      <c r="D714" s="4">
+        <v>31</v>
+      </c>
+      <c r="E714" s="9">
+        <f t="shared" si="60"/>
+        <v>12903.225806451614</v>
+      </c>
+      <c r="F714" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G714" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H714" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I714" s="15">
+        <f t="shared" si="64"/>
+        <v>5.5677643628300215</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>25</v>
+      </c>
+      <c r="B715" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C715" s="4">
+        <v>7</v>
+      </c>
+      <c r="D715" s="4">
+        <v>33</v>
+      </c>
+      <c r="E715" s="9">
+        <f t="shared" si="60"/>
+        <v>12121.212121212122</v>
+      </c>
+      <c r="F715" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G715" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H715" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I715" s="15">
+        <f t="shared" si="64"/>
+        <v>5.7445626465380286</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>25</v>
+      </c>
+      <c r="B716" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C716" s="4">
+        <v>8</v>
+      </c>
+      <c r="D716" s="4">
+        <v>34</v>
+      </c>
+      <c r="E716" s="9">
+        <f t="shared" si="60"/>
+        <v>11764.705882352941</v>
+      </c>
+      <c r="F716" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G716" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H716" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I716" s="15">
+        <f t="shared" si="64"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>25</v>
+      </c>
+      <c r="B717" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C717" s="4">
+        <v>9</v>
+      </c>
+      <c r="D717" s="4">
+        <v>30</v>
+      </c>
+      <c r="E717" s="9">
+        <f t="shared" si="60"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="F717" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G717" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H717" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I717" s="15">
+        <f t="shared" si="64"/>
+        <v>5.4772255750516612</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>25</v>
+      </c>
+      <c r="B718" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C718" s="4">
+        <v>10</v>
+      </c>
+      <c r="D718" s="4">
+        <v>34</v>
+      </c>
+      <c r="E718" s="9">
+        <f t="shared" si="60"/>
+        <v>11764.705882352941</v>
+      </c>
+      <c r="F718" s="10">
+        <f t="shared" si="61"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G718" s="11">
+        <f t="shared" si="62"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H718" s="12">
+        <f t="shared" si="63"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I718" s="15">
+        <f t="shared" si="64"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>25</v>
+      </c>
+      <c r="B719" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C719" s="4">
+        <v>1</v>
+      </c>
+      <c r="D719" s="4">
+        <v>39</v>
+      </c>
+      <c r="E719" s="9">
+        <f t="shared" si="60"/>
+        <v>12820.51282051282</v>
+      </c>
+      <c r="F719" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G719" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H719" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I719" s="15">
+        <f t="shared" si="64"/>
+        <v>6.2449979983983983</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>25</v>
+      </c>
+      <c r="B720" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C720" s="4">
+        <v>2</v>
+      </c>
+      <c r="D720" s="4">
+        <v>41</v>
+      </c>
+      <c r="E720" s="9">
+        <f t="shared" si="60"/>
+        <v>12195.121951219513</v>
+      </c>
+      <c r="F720" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G720" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H720" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I720" s="15">
+        <f t="shared" si="64"/>
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>25</v>
+      </c>
+      <c r="B721" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C721" s="4">
+        <v>3</v>
+      </c>
+      <c r="D721" s="4">
+        <v>36</v>
+      </c>
+      <c r="E721" s="9">
+        <f t="shared" si="60"/>
+        <v>13888.888888888889</v>
+      </c>
+      <c r="F721" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G721" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H721" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I721" s="15">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>25</v>
+      </c>
+      <c r="B722" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C722" s="4">
+        <v>4</v>
+      </c>
+      <c r="D722" s="4">
+        <v>38</v>
+      </c>
+      <c r="E722" s="9">
+        <f t="shared" si="60"/>
+        <v>13157.894736842105</v>
+      </c>
+      <c r="F722" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G722" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H722" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I722" s="15">
+        <f t="shared" si="64"/>
+        <v>6.164414002968976</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>25</v>
+      </c>
+      <c r="B723" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C723" s="4">
+        <v>5</v>
+      </c>
+      <c r="D723" s="4">
+        <v>42</v>
+      </c>
+      <c r="E723" s="9">
+        <f t="shared" si="60"/>
+        <v>11904.761904761905</v>
+      </c>
+      <c r="F723" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G723" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H723" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I723" s="15">
+        <f t="shared" si="64"/>
+        <v>6.4807406984078604</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>25</v>
+      </c>
+      <c r="B724" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C724" s="4">
+        <v>6</v>
+      </c>
+      <c r="D724" s="4">
+        <v>40</v>
+      </c>
+      <c r="E724" s="9">
+        <f t="shared" si="60"/>
+        <v>12500</v>
+      </c>
+      <c r="F724" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G724" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H724" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I724" s="15">
+        <f t="shared" si="64"/>
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>25</v>
+      </c>
+      <c r="B725" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C725" s="4">
+        <v>7</v>
+      </c>
+      <c r="D725" s="4">
+        <v>39</v>
+      </c>
+      <c r="E725" s="9">
+        <f t="shared" si="60"/>
+        <v>12820.51282051282</v>
+      </c>
+      <c r="F725" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G725" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H725" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I725" s="15">
+        <f t="shared" si="64"/>
+        <v>6.2449979983983983</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>25</v>
+      </c>
+      <c r="B726" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C726" s="4">
+        <v>8</v>
+      </c>
+      <c r="D726" s="4">
+        <v>42</v>
+      </c>
+      <c r="E726" s="9">
+        <f t="shared" si="60"/>
+        <v>11904.761904761905</v>
+      </c>
+      <c r="F726" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G726" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H726" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I726" s="15">
+        <f t="shared" si="64"/>
+        <v>6.4807406984078604</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>25</v>
+      </c>
+      <c r="B727" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C727" s="4">
+        <v>9</v>
+      </c>
+      <c r="D727" s="4">
+        <v>43</v>
+      </c>
+      <c r="E727" s="9">
+        <f t="shared" si="60"/>
+        <v>11627.906976744185</v>
+      </c>
+      <c r="F727" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G727" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H727" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I727" s="15">
+        <f t="shared" si="64"/>
+        <v>6.5574385243020004</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>25</v>
+      </c>
+      <c r="B728" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C728" s="4">
+        <v>10</v>
+      </c>
+      <c r="D728" s="4">
+        <v>43</v>
+      </c>
+      <c r="E728" s="9">
+        <f t="shared" si="60"/>
+        <v>11627.906976744185</v>
+      </c>
+      <c r="F728" s="10">
+        <f t="shared" si="61"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G728" s="11">
+        <f t="shared" si="62"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H728" s="12">
+        <f t="shared" si="63"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I728" s="15">
+        <f t="shared" si="64"/>
+        <v>6.5574385243020004</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>25</v>
+      </c>
+      <c r="B729" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C729" s="4">
+        <v>1</v>
+      </c>
+      <c r="D729" s="4">
+        <v>44</v>
+      </c>
+      <c r="E729" s="9">
+        <f t="shared" si="60"/>
+        <v>13636.363636363636</v>
+      </c>
+      <c r="F729" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G729" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H729" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I729" s="15">
+        <f t="shared" si="64"/>
+        <v>6.6332495807107996</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>25</v>
+      </c>
+      <c r="B730" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C730" s="4">
+        <v>2</v>
+      </c>
+      <c r="D730" s="4">
+        <v>49</v>
+      </c>
+      <c r="E730" s="9">
+        <f t="shared" si="60"/>
+        <v>12244.897959183674</v>
+      </c>
+      <c r="F730" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G730" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H730" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I730" s="15">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>25</v>
+      </c>
+      <c r="B731" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C731" s="4">
+        <v>3</v>
+      </c>
+      <c r="D731" s="4">
+        <v>50</v>
+      </c>
+      <c r="E731" s="9">
+        <f t="shared" si="60"/>
+        <v>12000</v>
+      </c>
+      <c r="F731" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G731" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H731" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I731" s="15">
+        <f t="shared" si="64"/>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>25</v>
+      </c>
+      <c r="B732" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C732" s="4">
+        <v>4</v>
+      </c>
+      <c r="D732" s="4">
+        <v>52</v>
+      </c>
+      <c r="E732" s="9">
+        <f t="shared" si="60"/>
+        <v>11538.461538461539</v>
+      </c>
+      <c r="F732" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G732" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H732" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I732" s="15">
+        <f t="shared" si="64"/>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>25</v>
+      </c>
+      <c r="B733" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C733" s="4">
+        <v>5</v>
+      </c>
+      <c r="D733" s="4">
+        <v>52</v>
+      </c>
+      <c r="E733" s="9">
+        <f t="shared" si="60"/>
+        <v>11538.461538461539</v>
+      </c>
+      <c r="F733" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G733" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H733" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I733" s="15">
+        <f t="shared" si="64"/>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>25</v>
+      </c>
+      <c r="B734" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C734" s="4">
+        <v>6</v>
+      </c>
+      <c r="D734" s="4">
+        <v>47</v>
+      </c>
+      <c r="E734" s="9">
+        <f t="shared" si="60"/>
+        <v>12765.95744680851</v>
+      </c>
+      <c r="F734" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G734" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H734" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I734" s="15">
+        <f t="shared" si="64"/>
+        <v>6.8556546004010439</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>25</v>
+      </c>
+      <c r="B735" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C735" s="4">
+        <v>7</v>
+      </c>
+      <c r="D735" s="4">
+        <v>49</v>
+      </c>
+      <c r="E735" s="9">
+        <f t="shared" si="60"/>
+        <v>12244.897959183674</v>
+      </c>
+      <c r="F735" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G735" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H735" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I735" s="15">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>25</v>
+      </c>
+      <c r="B736" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C736" s="4">
+        <v>8</v>
+      </c>
+      <c r="D736" s="4">
+        <v>52</v>
+      </c>
+      <c r="E736" s="9">
+        <f t="shared" si="60"/>
+        <v>11538.461538461539</v>
+      </c>
+      <c r="F736" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G736" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H736" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I736" s="15">
+        <f t="shared" si="64"/>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>25</v>
+      </c>
+      <c r="B737" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C737" s="4">
+        <v>9</v>
+      </c>
+      <c r="D737" s="4">
+        <v>48</v>
+      </c>
+      <c r="E737" s="9">
+        <f t="shared" si="60"/>
+        <v>12500</v>
+      </c>
+      <c r="F737" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G737" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H737" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I737" s="15">
+        <f t="shared" si="64"/>
+        <v>6.9282032302755088</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>25</v>
+      </c>
+      <c r="B738" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C738" s="4">
+        <v>10</v>
+      </c>
+      <c r="D738" s="4">
+        <v>51</v>
+      </c>
+      <c r="E738" s="9">
+        <f t="shared" si="60"/>
+        <v>11764.705882352941</v>
+      </c>
+      <c r="F738" s="10">
+        <f t="shared" si="61"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G738" s="11">
+        <f t="shared" si="62"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H738" s="12">
+        <f t="shared" si="63"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I738" s="15">
+        <f t="shared" si="64"/>
+        <v>7.1414284285428504</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>25</v>
+      </c>
+      <c r="B739" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C739" s="4">
+        <v>1</v>
+      </c>
+      <c r="D739" s="4">
+        <v>54</v>
+      </c>
+      <c r="E739" s="9">
+        <f t="shared" si="60"/>
+        <v>12962.962962962964</v>
+      </c>
+      <c r="F739" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G739" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H739" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I739" s="15">
+        <f t="shared" si="64"/>
+        <v>7.3484692283495345</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>25</v>
+      </c>
+      <c r="B740" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C740" s="4">
+        <v>2</v>
+      </c>
+      <c r="D740" s="4">
+        <v>60</v>
+      </c>
+      <c r="E740" s="9">
+        <f t="shared" si="60"/>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="F740" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G740" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H740" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I740" s="15">
+        <f t="shared" si="64"/>
+        <v>7.745966692414834</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>25</v>
+      </c>
+      <c r="B741" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C741" s="4">
+        <v>3</v>
+      </c>
+      <c r="D741" s="4">
+        <v>64</v>
+      </c>
+      <c r="E741" s="9">
+        <f t="shared" si="60"/>
+        <v>10937.5</v>
+      </c>
+      <c r="F741" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G741" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H741" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I741" s="15">
+        <f t="shared" si="64"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>25</v>
+      </c>
+      <c r="B742" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C742" s="4">
+        <v>4</v>
+      </c>
+      <c r="D742" s="4">
+        <v>50</v>
+      </c>
+      <c r="E742" s="9">
+        <f t="shared" si="60"/>
+        <v>14000</v>
+      </c>
+      <c r="F742" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G742" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H742" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I742" s="15">
+        <f t="shared" si="64"/>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>25</v>
+      </c>
+      <c r="B743" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C743" s="4">
+        <v>5</v>
+      </c>
+      <c r="D743" s="4">
+        <v>51</v>
+      </c>
+      <c r="E743" s="9">
+        <f t="shared" si="60"/>
+        <v>13725.490196078432</v>
+      </c>
+      <c r="F743" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G743" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H743" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I743" s="15">
+        <f t="shared" si="64"/>
+        <v>7.1414284285428504</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>25</v>
+      </c>
+      <c r="B744" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C744" s="4">
+        <v>6</v>
+      </c>
+      <c r="D744" s="4">
+        <v>50</v>
+      </c>
+      <c r="E744" s="9">
+        <f t="shared" si="60"/>
+        <v>14000</v>
+      </c>
+      <c r="F744" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G744" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H744" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I744" s="15">
+        <f t="shared" si="64"/>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>25</v>
+      </c>
+      <c r="B745" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C745" s="4">
+        <v>7</v>
+      </c>
+      <c r="D745" s="4">
+        <v>54</v>
+      </c>
+      <c r="E745" s="9">
+        <f t="shared" si="60"/>
+        <v>12962.962962962964</v>
+      </c>
+      <c r="F745" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G745" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H745" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I745" s="15">
+        <f t="shared" si="64"/>
+        <v>7.3484692283495345</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>25</v>
+      </c>
+      <c r="B746" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C746" s="4">
+        <v>8</v>
+      </c>
+      <c r="D746" s="4">
+        <v>50</v>
+      </c>
+      <c r="E746" s="9">
+        <f t="shared" si="60"/>
+        <v>14000</v>
+      </c>
+      <c r="F746" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G746" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H746" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I746" s="15">
+        <f t="shared" si="64"/>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>25</v>
+      </c>
+      <c r="B747" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C747" s="4">
+        <v>9</v>
+      </c>
+      <c r="D747" s="4">
+        <v>51</v>
+      </c>
+      <c r="E747" s="9">
+        <f t="shared" si="60"/>
+        <v>13725.490196078432</v>
+      </c>
+      <c r="F747" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G747" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H747" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I747" s="15">
+        <f t="shared" si="64"/>
+        <v>7.1414284285428504</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>25</v>
+      </c>
+      <c r="B748" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C748" s="4">
+        <v>10</v>
+      </c>
+      <c r="D748" s="4">
+        <v>55</v>
+      </c>
+      <c r="E748" s="9">
+        <f t="shared" si="60"/>
+        <v>12727.272727272728</v>
+      </c>
+      <c r="F748" s="10">
+        <f t="shared" si="61"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G748" s="11">
+        <f t="shared" si="62"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H748" s="12">
+        <f t="shared" si="63"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I748" s="15">
+        <f t="shared" si="64"/>
+        <v>7.416198487095663</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>25</v>
+      </c>
+      <c r="B749" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C749" s="4">
+        <v>1</v>
+      </c>
+      <c r="D749" s="4">
+        <v>65</v>
+      </c>
+      <c r="E749" s="9">
+        <f t="shared" si="60"/>
+        <v>12307.692307692309</v>
+      </c>
+      <c r="F749" s="10">
+        <f t="shared" si="61"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G749" s="11">
+        <f t="shared" si="62"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H749" s="12">
+        <f t="shared" si="63"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I749" s="15">
+        <f t="shared" si="64"/>
+        <v>8.0622577482985491</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>25</v>
+      </c>
+      <c r="B750" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C750" s="4">
+        <v>2</v>
+      </c>
+      <c r="D750" s="4">
+        <v>66</v>
+      </c>
+      <c r="E750" s="9">
+        <f t="shared" si="60"/>
+        <v>12121.212121212122</v>
+      </c>
+      <c r="F750" s="10">
+        <f t="shared" si="61"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G750" s="11">
+        <f t="shared" si="62"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H750" s="12">
+        <f t="shared" si="63"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I750" s="15">
+        <f t="shared" si="64"/>
+        <v>8.1240384046359608</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>25</v>
+      </c>
+      <c r="B751" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C751" s="4">
+        <v>3</v>
+      </c>
+      <c r="D751" s="4">
+        <v>58</v>
+      </c>
+      <c r="E751" s="9">
+        <f t="shared" si="60"/>
+        <v>13793.103448275862</v>
+      </c>
+      <c r="F751" s="10">
+        <f t="shared" si="61"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G751" s="11">
+        <f t="shared" si="62"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H751" s="12">
+        <f t="shared" si="63"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I751" s="15">
+        <f t="shared" si="64"/>
+        <v>7.6157731058639087</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>25</v>
+      </c>
+      <c r="B752" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C752" s="4">
+        <v>4</v>
+      </c>
+      <c r="D752" s="4">
+        <v>61</v>
+      </c>
+      <c r="E752" s="9">
+        <f t="shared" si="60"/>
+        <v>13114.754098360656</v>
+      </c>
+      <c r="F752" s="10">
+        <f t="shared" si="61"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G752" s="11">
+        <f t="shared" si="62"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H752" s="12">
+        <f t="shared" si="63"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I752" s="15">
+        <f t="shared" si="64"/>
+        <v>7.810249675906654</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>25</v>
+      </c>
+      <c r="B753" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C753" s="4">
+        <v>5</v>
+      </c>
+      <c r="D753" s="4">
+        <v>57</v>
+      </c>
+      <c r="E753" s="9">
+        <f t="shared" ref="E753:E787" si="65">IF(D753=0,0,B753/D753)</f>
+        <v>14035.087719298246</v>
+      </c>
+      <c r="F753" s="10">
+        <f t="shared" ref="F753:F787" si="66">B753*B753</f>
+        <v>640000000000</v>
+      </c>
+      <c r="G753" s="11">
+        <f t="shared" ref="G753:G787" si="67">LN(B753)</f>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H753" s="12">
+        <f t="shared" ref="H753:H787" si="68">B753*G753</f>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I753" s="15">
+        <f t="shared" ref="I753:I787" si="69">POWER(D753,0.5)</f>
+        <v>7.5498344352707498</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>25</v>
+      </c>
+      <c r="B754" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C754" s="4">
+        <v>6</v>
+      </c>
+      <c r="D754" s="4">
+        <v>62</v>
+      </c>
+      <c r="E754" s="9">
+        <f t="shared" si="65"/>
+        <v>12903.225806451614</v>
+      </c>
+      <c r="F754" s="10">
+        <f t="shared" si="66"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G754" s="11">
+        <f t="shared" si="67"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H754" s="12">
+        <f t="shared" si="68"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I754" s="15">
+        <f t="shared" si="69"/>
+        <v>7.8740078740118111</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>25</v>
+      </c>
+      <c r="B755" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C755" s="4">
+        <v>7</v>
+      </c>
+      <c r="D755" s="4">
+        <v>59</v>
+      </c>
+      <c r="E755" s="9">
+        <f t="shared" si="65"/>
+        <v>13559.322033898305</v>
+      </c>
+      <c r="F755" s="10">
+        <f t="shared" si="66"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G755" s="11">
+        <f t="shared" si="67"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H755" s="12">
+        <f t="shared" si="68"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I755" s="15">
+        <f t="shared" si="69"/>
+        <v>7.6811457478686078</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>25</v>
+      </c>
+      <c r="B756" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C756" s="4">
+        <v>8</v>
+      </c>
+      <c r="D756" s="4">
+        <v>67</v>
+      </c>
+      <c r="E756" s="9">
+        <f t="shared" si="65"/>
+        <v>11940.298507462687</v>
+      </c>
+      <c r="F756" s="10">
+        <f t="shared" si="66"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G756" s="11">
+        <f t="shared" si="67"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H756" s="12">
+        <f t="shared" si="68"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I756" s="15">
+        <f t="shared" si="69"/>
+        <v>8.1853527718724504</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>25</v>
+      </c>
+      <c r="B757" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C757" s="4">
+        <v>9</v>
+      </c>
+      <c r="D757" s="4">
+        <v>60</v>
+      </c>
+      <c r="E757" s="9">
+        <f t="shared" si="65"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="F757" s="10">
+        <f t="shared" si="66"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G757" s="11">
+        <f t="shared" si="67"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H757" s="12">
+        <f t="shared" si="68"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I757" s="15">
+        <f t="shared" si="69"/>
+        <v>7.745966692414834</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>25</v>
+      </c>
+      <c r="B758" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C758" s="4">
+        <v>10</v>
+      </c>
+      <c r="D758" s="4">
+        <v>59</v>
+      </c>
+      <c r="E758" s="9">
+        <f t="shared" si="65"/>
+        <v>13559.322033898305</v>
+      </c>
+      <c r="F758" s="10">
+        <f t="shared" si="66"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G758" s="11">
+        <f t="shared" si="67"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H758" s="12">
+        <f t="shared" si="68"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I758" s="15">
+        <f t="shared" si="69"/>
+        <v>7.6811457478686078</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>25</v>
+      </c>
+      <c r="B759" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C759" s="4">
+        <v>1</v>
+      </c>
+      <c r="D759" s="4">
+        <v>66</v>
+      </c>
+      <c r="E759" s="9">
+        <f t="shared" si="65"/>
+        <v>13636.363636363636</v>
+      </c>
+      <c r="F759" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G759" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H759" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I759" s="15">
+        <f t="shared" si="69"/>
+        <v>8.1240384046359608</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>25</v>
+      </c>
+      <c r="B760" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C760" s="4">
+        <v>2</v>
+      </c>
+      <c r="D760" s="4">
+        <v>72</v>
+      </c>
+      <c r="E760" s="9">
+        <f t="shared" si="65"/>
+        <v>12500</v>
+      </c>
+      <c r="F760" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G760" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H760" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I760" s="15">
+        <f t="shared" si="69"/>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>25</v>
+      </c>
+      <c r="B761" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C761" s="4">
+        <v>3</v>
+      </c>
+      <c r="D761" s="4">
+        <v>70</v>
+      </c>
+      <c r="E761" s="9">
+        <f t="shared" si="65"/>
+        <v>12857.142857142857</v>
+      </c>
+      <c r="F761" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G761" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H761" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I761" s="15">
+        <f t="shared" si="69"/>
+        <v>8.3666002653407556</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>25</v>
+      </c>
+      <c r="B762" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C762" s="4">
+        <v>4</v>
+      </c>
+      <c r="D762" s="4">
+        <v>71</v>
+      </c>
+      <c r="E762" s="9">
+        <f t="shared" si="65"/>
+        <v>12676.056338028169</v>
+      </c>
+      <c r="F762" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G762" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H762" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I762" s="15">
+        <f t="shared" si="69"/>
+        <v>8.426149773176359</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>25</v>
+      </c>
+      <c r="B763" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C763" s="4">
+        <v>5</v>
+      </c>
+      <c r="D763" s="4">
+        <v>69</v>
+      </c>
+      <c r="E763" s="9">
+        <f t="shared" si="65"/>
+        <v>13043.478260869566</v>
+      </c>
+      <c r="F763" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G763" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H763" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I763" s="15">
+        <f t="shared" si="69"/>
+        <v>8.3066238629180749</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>25</v>
+      </c>
+      <c r="B764" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C764" s="4">
+        <v>6</v>
+      </c>
+      <c r="D764" s="4">
+        <v>64</v>
+      </c>
+      <c r="E764" s="9">
+        <f t="shared" si="65"/>
+        <v>14062.5</v>
+      </c>
+      <c r="F764" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G764" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H764" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I764" s="15">
+        <f t="shared" si="69"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>25</v>
+      </c>
+      <c r="B765" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C765" s="4">
+        <v>7</v>
+      </c>
+      <c r="D765" s="4">
+        <v>68</v>
+      </c>
+      <c r="E765" s="9">
+        <f t="shared" si="65"/>
+        <v>13235.294117647059</v>
+      </c>
+      <c r="F765" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G765" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H765" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I765" s="15">
+        <f t="shared" si="69"/>
+        <v>8.2462112512353212</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>25</v>
+      </c>
+      <c r="B766" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C766" s="4">
+        <v>8</v>
+      </c>
+      <c r="D766" s="4">
+        <v>66</v>
+      </c>
+      <c r="E766" s="9">
+        <f t="shared" si="65"/>
+        <v>13636.363636363636</v>
+      </c>
+      <c r="F766" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G766" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H766" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I766" s="15">
+        <f t="shared" si="69"/>
+        <v>8.1240384046359608</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>25</v>
+      </c>
+      <c r="B767" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C767" s="4">
+        <v>9</v>
+      </c>
+      <c r="D767" s="4">
+        <v>67</v>
+      </c>
+      <c r="E767" s="9">
+        <f t="shared" si="65"/>
+        <v>13432.835820895523</v>
+      </c>
+      <c r="F767" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G767" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H767" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I767" s="15">
+        <f t="shared" si="69"/>
+        <v>8.1853527718724504</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>25</v>
+      </c>
+      <c r="B768" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C768" s="4">
+        <v>10</v>
+      </c>
+      <c r="D768" s="4">
+        <v>70</v>
+      </c>
+      <c r="E768" s="9">
+        <f t="shared" si="65"/>
+        <v>12857.142857142857</v>
+      </c>
+      <c r="F768" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G768" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H768" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I768" s="15">
+        <f t="shared" si="69"/>
+        <v>8.3666002653407556</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>25</v>
+      </c>
+      <c r="B769" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C769" s="4">
+        <v>1</v>
+      </c>
+      <c r="D769" s="4">
+        <v>74</v>
+      </c>
+      <c r="E769" s="9">
+        <f t="shared" si="65"/>
+        <v>13513.513513513513</v>
+      </c>
+      <c r="F769" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G769" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H769" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I769" s="15">
+        <f t="shared" si="69"/>
+        <v>8.6023252670426267</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>25</v>
+      </c>
+      <c r="B770" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C770" s="4">
+        <v>2</v>
+      </c>
+      <c r="D770" s="4">
+        <v>76</v>
+      </c>
+      <c r="E770" s="9">
+        <f t="shared" si="65"/>
+        <v>13157.894736842105</v>
+      </c>
+      <c r="F770" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G770" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H770" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I770" s="15">
+        <f t="shared" si="69"/>
+        <v>8.717797887081348</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>25</v>
+      </c>
+      <c r="B771" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C771" s="4">
+        <v>3</v>
+      </c>
+      <c r="D771" s="4">
+        <v>73</v>
+      </c>
+      <c r="E771" s="9">
+        <f t="shared" si="65"/>
+        <v>13698.630136986301</v>
+      </c>
+      <c r="F771" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G771" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H771" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I771" s="15">
+        <f t="shared" si="69"/>
+        <v>8.5440037453175304</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>25</v>
+      </c>
+      <c r="B772" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C772" s="4">
+        <v>4</v>
+      </c>
+      <c r="D772" s="4">
+        <v>75</v>
+      </c>
+      <c r="E772" s="9">
+        <f t="shared" si="65"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="F772" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G772" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H772" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I772" s="15">
+        <f t="shared" si="69"/>
+        <v>8.6602540378443873</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>25</v>
+      </c>
+      <c r="B773" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C773" s="4">
+        <v>5</v>
+      </c>
+      <c r="D773" s="4">
+        <v>79</v>
+      </c>
+      <c r="E773" s="9">
+        <f t="shared" si="65"/>
+        <v>12658.227848101265</v>
+      </c>
+      <c r="F773" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G773" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H773" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I773" s="15">
+        <f t="shared" si="69"/>
+        <v>8.8881944173155887</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>25</v>
+      </c>
+      <c r="B774" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C774" s="4">
+        <v>6</v>
+      </c>
+      <c r="D774" s="4">
+        <v>84</v>
+      </c>
+      <c r="E774" s="9">
+        <f t="shared" si="65"/>
+        <v>11904.761904761905</v>
+      </c>
+      <c r="F774" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G774" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H774" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I774" s="15">
+        <f t="shared" si="69"/>
+        <v>9.1651513899116797</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>25</v>
+      </c>
+      <c r="B775" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C775" s="4">
+        <v>7</v>
+      </c>
+      <c r="D775" s="4">
+        <v>84</v>
+      </c>
+      <c r="E775" s="9">
+        <f t="shared" si="65"/>
+        <v>11904.761904761905</v>
+      </c>
+      <c r="F775" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G775" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H775" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I775" s="15">
+        <f t="shared" si="69"/>
+        <v>9.1651513899116797</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>25</v>
+      </c>
+      <c r="B776" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C776" s="4">
+        <v>8</v>
+      </c>
+      <c r="D776" s="4">
+        <v>87</v>
+      </c>
+      <c r="E776" s="9">
+        <f t="shared" si="65"/>
+        <v>11494.252873563219</v>
+      </c>
+      <c r="F776" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G776" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H776" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I776" s="15">
+        <f t="shared" si="69"/>
+        <v>9.3273790530888157</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>25</v>
+      </c>
+      <c r="B777" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C777" s="4">
+        <v>9</v>
+      </c>
+      <c r="D777" s="4">
+        <v>78</v>
+      </c>
+      <c r="E777" s="9">
+        <f t="shared" si="65"/>
+        <v>12820.51282051282</v>
+      </c>
+      <c r="F777" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G777" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H777" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I777" s="15">
+        <f t="shared" si="69"/>
+        <v>8.8317608663278477</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>25</v>
+      </c>
+      <c r="B778" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C778" s="4">
+        <v>10</v>
+      </c>
+      <c r="D778" s="4">
+        <v>79</v>
+      </c>
+      <c r="E778" s="9">
+        <f t="shared" si="65"/>
+        <v>12658.227848101265</v>
+      </c>
+      <c r="F778" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G778" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H778" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I778" s="15">
+        <f t="shared" si="69"/>
+        <v>8.8881944173155887</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>26</v>
+      </c>
+      <c r="B779" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C779" s="4">
+        <v>0</v>
+      </c>
+      <c r="D779" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="E779" s="9">
+        <f t="shared" si="65"/>
+        <v>13157.894736842105</v>
+      </c>
+      <c r="F779" s="10">
+        <f t="shared" si="66"/>
+        <v>40000000000</v>
+      </c>
+      <c r="G779" s="11">
+        <f t="shared" si="67"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="H779" s="12">
+        <f t="shared" si="68"/>
+        <v>2441214.5291060349</v>
+      </c>
+      <c r="I779" s="15">
+        <f t="shared" si="69"/>
+        <v>3.8987177379235853</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>26</v>
+      </c>
+      <c r="B780" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C780" s="4">
+        <v>0</v>
+      </c>
+      <c r="D780" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="E780" s="9">
+        <f t="shared" si="65"/>
+        <v>12096.774193548386</v>
+      </c>
+      <c r="F780" s="10">
+        <f t="shared" si="66"/>
+        <v>90000000000</v>
+      </c>
+      <c r="G780" s="11">
+        <f t="shared" si="67"/>
+        <v>12.611537753638338</v>
+      </c>
+      <c r="H780" s="12">
+        <f t="shared" si="68"/>
+        <v>3783461.3260915014</v>
+      </c>
+      <c r="I780" s="15">
+        <f t="shared" si="69"/>
+        <v>4.9799598391954927</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>26</v>
+      </c>
+      <c r="B781" s="4">
+        <v>400000</v>
+      </c>
+      <c r="C781" s="4">
+        <v>0</v>
+      </c>
+      <c r="D781" s="4">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E781" s="9">
+        <f t="shared" si="65"/>
+        <v>12048.192771084336</v>
+      </c>
+      <c r="F781" s="10">
+        <f t="shared" si="66"/>
+        <v>160000000000</v>
+      </c>
+      <c r="G781" s="11">
+        <f t="shared" si="67"/>
+        <v>12.899219826090119</v>
+      </c>
+      <c r="H781" s="12">
+        <f t="shared" si="68"/>
+        <v>5159687.9304360477</v>
+      </c>
+      <c r="I781" s="15">
+        <f t="shared" si="69"/>
+        <v>5.7619441163551732</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>26</v>
+      </c>
+      <c r="B782" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C782" s="4">
+        <v>0</v>
+      </c>
+      <c r="D782" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E782" s="9">
+        <f t="shared" si="65"/>
+        <v>12406.947890818859</v>
+      </c>
+      <c r="F782" s="10">
+        <f t="shared" si="66"/>
+        <v>250000000000</v>
+      </c>
+      <c r="G782" s="11">
+        <f t="shared" si="67"/>
+        <v>13.122363377404328</v>
+      </c>
+      <c r="H782" s="12">
+        <f t="shared" si="68"/>
+        <v>6561181.6887021642</v>
+      </c>
+      <c r="I782" s="15">
+        <f t="shared" si="69"/>
+        <v>6.3482280992415507</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>26</v>
+      </c>
+      <c r="B783" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C783" s="4">
+        <v>0</v>
+      </c>
+      <c r="D783" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="E783" s="9">
+        <f t="shared" si="65"/>
+        <v>12145.748987854251</v>
+      </c>
+      <c r="F783" s="10">
+        <f t="shared" si="66"/>
+        <v>360000000000</v>
+      </c>
+      <c r="G783" s="11">
+        <f t="shared" si="67"/>
+        <v>13.304684934198283</v>
+      </c>
+      <c r="H783" s="12">
+        <f t="shared" si="68"/>
+        <v>7982810.9605189702</v>
+      </c>
+      <c r="I783" s="15">
+        <f t="shared" si="69"/>
+        <v>7.0285133563222315</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>26</v>
+      </c>
+      <c r="B784" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C784" s="4">
+        <v>0</v>
+      </c>
+      <c r="D784" s="4">
+        <v>53.9</v>
+      </c>
+      <c r="E784" s="9">
+        <f t="shared" si="65"/>
+        <v>12987.012987012988</v>
+      </c>
+      <c r="F784" s="10">
+        <f t="shared" si="66"/>
+        <v>490000000000</v>
+      </c>
+      <c r="G784" s="11">
+        <f t="shared" si="67"/>
+        <v>13.458835614025542</v>
+      </c>
+      <c r="H784" s="12">
+        <f t="shared" si="68"/>
+        <v>9421184.9298178796</v>
+      </c>
+      <c r="I784" s="15">
+        <f t="shared" si="69"/>
+        <v>7.341661937191061</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>26</v>
+      </c>
+      <c r="B785" s="4">
+        <v>800000</v>
+      </c>
+      <c r="C785" s="4">
+        <v>0</v>
+      </c>
+      <c r="D785" s="4">
+        <v>61.4</v>
+      </c>
+      <c r="E785" s="9">
+        <f t="shared" si="65"/>
+        <v>13029.315960912052</v>
+      </c>
+      <c r="F785" s="10">
+        <f t="shared" si="66"/>
+        <v>640000000000</v>
+      </c>
+      <c r="G785" s="11">
+        <f t="shared" si="67"/>
+        <v>13.592367006650065</v>
+      </c>
+      <c r="H785" s="12">
+        <f t="shared" si="68"/>
+        <v>10873893.605320051</v>
+      </c>
+      <c r="I785" s="15">
+        <f t="shared" si="69"/>
+        <v>7.8358152096638927</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>26</v>
+      </c>
+      <c r="B786" s="4">
+        <v>900000</v>
+      </c>
+      <c r="C786" s="4">
+        <v>0</v>
+      </c>
+      <c r="D786" s="4">
+        <v>68.3</v>
+      </c>
+      <c r="E786" s="9">
+        <f t="shared" si="65"/>
+        <v>13177.159590043924</v>
+      </c>
+      <c r="F786" s="10">
+        <f t="shared" si="66"/>
+        <v>810000000000</v>
+      </c>
+      <c r="G786" s="11">
+        <f t="shared" si="67"/>
+        <v>13.710150042306449</v>
+      </c>
+      <c r="H786" s="12">
+        <f t="shared" si="68"/>
+        <v>12339135.038075803</v>
+      </c>
+      <c r="I786" s="15">
+        <f t="shared" si="69"/>
+        <v>8.2643814045577546</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>26</v>
+      </c>
+      <c r="B787" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C787" s="4">
+        <v>0</v>
+      </c>
+      <c r="D787" s="4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E787" s="9">
+        <f t="shared" si="65"/>
+        <v>12674.271229404309</v>
+      </c>
+      <c r="F787" s="10">
+        <f t="shared" si="66"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="G787" s="11">
+        <f t="shared" si="67"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="H787" s="12">
+        <f t="shared" si="68"/>
+        <v>13815510.557964273</v>
+      </c>
+      <c r="I787" s="15">
+        <f t="shared" si="69"/>
+        <v>8.8825671964809825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
